--- a/NBAcademix/media/performance_documents/THIRD__YEAR_-ACADEMIC_YEAR_2020-21.xlsx
+++ b/NBAcademix/media/performance_documents/THIRD__YEAR_-ACADEMIC_YEAR_2020-21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAISHANAVI RAO P\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3122036D-6ECB-43BF-BD16-E1676D462B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DF592C-F2C6-4333-9779-B51D527FBEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3276" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-21" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="206">
   <si>
     <t>SL.NO</t>
   </si>
@@ -40,18 +40,6 @@
   </si>
   <si>
     <t>DETAINED?</t>
-  </si>
-  <si>
-    <t>Mean of percentage of all successful students(x)</t>
-  </si>
-  <si>
-    <t>Total no.of students appeared in the examination</t>
-  </si>
-  <si>
-    <t>Academic Performance Index(API)=X*(Y/Z)</t>
-  </si>
-  <si>
-    <t>Total number of sucessful students(y)</t>
   </si>
   <si>
     <t>NO</t>
@@ -1071,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1093,10 +1081,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>3</v>
@@ -1110,10 +1098,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D2" s="5">
         <v>7.52</v>
@@ -1126,7 +1114,7 @@
         <v>8.02</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1134,10 +1122,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D3" s="5">
         <v>6.76</v>
@@ -1150,7 +1138,7 @@
         <v>7.34</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1158,10 +1146,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D4" s="5">
         <v>7.44</v>
@@ -1174,7 +1162,7 @@
         <v>7.8599999999999994</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1182,10 +1170,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D5" s="5">
         <v>8</v>
@@ -1198,7 +1186,7 @@
         <v>8.5</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1206,10 +1194,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D6" s="5">
         <v>2.84</v>
@@ -1222,7 +1210,7 @@
         <v>4.8</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1230,10 +1218,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D7" s="5">
         <v>8.68</v>
@@ -1246,7 +1234,7 @@
         <v>8.84</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1254,10 +1242,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D8" s="5">
         <v>8.16</v>
@@ -1270,7 +1258,7 @@
         <v>8.58</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1278,10 +1266,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D9" s="5">
         <v>7.8</v>
@@ -1294,7 +1282,7 @@
         <v>8.0399999999999991</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1302,10 +1290,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D10" s="5">
         <v>6.44</v>
@@ -1318,7 +1306,7 @@
         <v>7.18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1326,10 +1314,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D11" s="5">
         <v>7.4</v>
@@ -1342,7 +1330,7 @@
         <v>7.84</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1350,10 +1338,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D12" s="5">
         <v>8.6</v>
@@ -1366,7 +1354,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1374,10 +1362,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5">
         <v>4.12</v>
@@ -1390,7 +1378,7 @@
         <v>5.9</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1398,10 +1386,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D14" s="5">
         <v>8</v>
@@ -1414,7 +1402,7 @@
         <v>8.379999999999999</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1422,10 +1410,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D15" s="5">
         <v>8</v>
@@ -1438,7 +1426,7 @@
         <v>8.42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1446,10 +1434,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D16" s="5">
         <v>7.32</v>
@@ -1462,7 +1450,7 @@
         <v>7.68</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1470,10 +1458,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D17" s="5">
         <v>8.32</v>
@@ -1486,7 +1474,7 @@
         <v>8.620000000000001</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1494,10 +1482,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D18" s="5">
         <v>7.56</v>
@@ -1510,7 +1498,7 @@
         <v>7.82</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1518,10 +1506,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D19" s="5">
         <v>8.92</v>
@@ -1534,7 +1522,7 @@
         <v>9.26</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1542,10 +1530,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D20" s="5">
         <v>8.7200000000000006</v>
@@ -1558,18 +1546,18 @@
         <v>8.86</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D21" s="5">
         <v>8.0399999999999991</v>
@@ -1582,7 +1570,7 @@
         <v>8.52</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1590,10 +1578,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D22" s="5">
         <v>5.4</v>
@@ -1606,7 +1594,7 @@
         <v>6.5</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1614,10 +1602,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D23" s="5">
         <v>7.84</v>
@@ -1630,7 +1618,7 @@
         <v>7.9799999999999995</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1638,10 +1626,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D24" s="5">
         <v>5.36</v>
@@ -1654,7 +1642,7 @@
         <v>6.5600000000000005</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1662,10 +1650,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D25" s="5">
         <v>8.92</v>
@@ -1678,7 +1666,7 @@
         <v>8.9600000000000009</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1686,10 +1674,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D26" s="5">
         <v>8.1199999999999992</v>
@@ -1702,7 +1690,7 @@
         <v>8.52</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1710,10 +1698,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D27" s="5">
         <v>6.92</v>
@@ -1726,7 +1714,7 @@
         <v>7.56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1734,10 +1722,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D28" s="5">
         <v>7.6</v>
@@ -1750,7 +1738,7 @@
         <v>8.0599999999999987</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1758,10 +1746,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D29" s="5">
         <v>7.52</v>
@@ -1774,7 +1762,7 @@
         <v>8.0599999999999987</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1782,10 +1770,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D30" s="5">
         <v>6.36</v>
@@ -1798,7 +1786,7 @@
         <v>7.1</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1806,10 +1794,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D31" s="5">
         <v>8.16</v>
@@ -1822,7 +1810,7 @@
         <v>8.58</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1830,10 +1818,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D32" s="5">
         <v>3</v>
@@ -1846,7 +1834,7 @@
         <v>5.08</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1854,10 +1842,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D33" s="5">
         <v>7.04</v>
@@ -1870,7 +1858,7 @@
         <v>7.48</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1878,10 +1866,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D34" s="5">
         <v>6.28</v>
@@ -1894,7 +1882,7 @@
         <v>6.9399999999999995</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1902,10 +1890,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D35" s="5">
         <v>7.28</v>
@@ -1918,7 +1906,7 @@
         <v>7.6</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1926,10 +1914,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D36" s="5">
         <v>8.1199999999999992</v>
@@ -1942,7 +1930,7 @@
         <v>8.48</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1950,10 +1938,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D37" s="5">
         <v>8.2799999999999994</v>
@@ -1966,7 +1954,7 @@
         <v>8.64</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1974,10 +1962,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D38" s="5">
         <v>6.88</v>
@@ -1990,7 +1978,7 @@
         <v>7.4399999999999995</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1998,10 +1986,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D39" s="5">
         <v>6.12</v>
@@ -2014,7 +2002,7 @@
         <v>7.02</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2022,10 +2010,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D40" s="5">
         <v>8</v>
@@ -2038,7 +2026,7 @@
         <v>8.5</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2046,10 +2034,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D41" s="5">
         <v>7.76</v>
@@ -2062,7 +2050,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2070,10 +2058,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D42" s="5">
         <v>6.56</v>
@@ -2086,7 +2074,7 @@
         <v>7.24</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2094,10 +2082,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D43" s="5">
         <v>7.84</v>
@@ -2110,7 +2098,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2118,10 +2106,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D44" s="5">
         <v>8.92</v>
@@ -2134,7 +2122,7 @@
         <v>9.14</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2142,10 +2130,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D45" s="5">
         <v>7.36</v>
@@ -2158,7 +2146,7 @@
         <v>7.98</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2166,10 +2154,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D46" s="5">
         <v>6.84</v>
@@ -2182,7 +2170,7 @@
         <v>7.42</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2190,10 +2178,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D47" s="5">
         <v>7.32</v>
@@ -2206,7 +2194,7 @@
         <v>7.72</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2214,10 +2202,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D48" s="5">
         <v>7.84</v>
@@ -2230,7 +2218,7 @@
         <v>8.42</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2238,10 +2226,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D49" s="5">
         <v>7.68</v>
@@ -2254,7 +2242,7 @@
         <v>7.84</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2262,10 +2250,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D50" s="5">
         <v>3.04</v>
@@ -2278,7 +2266,7 @@
         <v>5.08</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2286,10 +2274,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D51" s="5">
         <v>5.5</v>
@@ -2302,7 +2290,7 @@
         <v>6.21</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2310,10 +2298,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D52" s="5">
         <v>4.84</v>
@@ -2326,7 +2314,7 @@
         <v>6.22</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2334,10 +2322,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D53" s="5">
         <v>8.44</v>
@@ -2350,7 +2338,7 @@
         <v>8.7199999999999989</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2358,10 +2346,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D54" s="5">
         <v>8.1999999999999993</v>
@@ -2374,7 +2362,7 @@
         <v>8.52</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2382,10 +2370,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D55" s="5">
         <v>7.28</v>
@@ -2398,7 +2386,7 @@
         <v>7.6400000000000006</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2406,10 +2394,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D56" s="5">
         <v>7.36</v>
@@ -2422,7 +2410,7 @@
         <v>7.76</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2430,10 +2418,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D57" s="5">
         <v>7.36</v>
@@ -2446,7 +2434,7 @@
         <v>7.74</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2454,10 +2442,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D58" s="5">
         <v>4.92</v>
@@ -2470,7 +2458,7 @@
         <v>6.26</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2478,10 +2466,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D59" s="5">
         <v>6.52</v>
@@ -2494,7 +2482,7 @@
         <v>7.14</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2502,10 +2490,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D60" s="5">
         <v>8.32</v>
@@ -2518,7 +2506,7 @@
         <v>8.58</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2526,10 +2514,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D61" s="5">
         <v>8.36</v>
@@ -2542,7 +2530,7 @@
         <v>8.68</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2550,10 +2538,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D62" s="5">
         <v>7.24</v>
@@ -2566,7 +2554,7 @@
         <v>7.5</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2574,10 +2562,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D63" s="5">
         <v>7.92</v>
@@ -2590,7 +2578,7 @@
         <v>8.4600000000000009</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2598,10 +2586,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D64" s="5">
         <v>6.52</v>
@@ -2614,7 +2602,7 @@
         <v>7.14</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2622,10 +2610,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D65" s="5">
         <v>7</v>
@@ -2638,7 +2626,7 @@
         <v>7.5</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2646,10 +2634,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D66" s="5">
         <v>7.44</v>
@@ -2662,7 +2650,7 @@
         <v>8.1</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2670,10 +2658,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D67" s="5">
         <v>7.6</v>
@@ -2686,7 +2674,7 @@
         <v>8.2199999999999989</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2694,10 +2682,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D68" s="5">
         <v>7.92</v>
@@ -2710,7 +2698,7 @@
         <v>8.379999999999999</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2718,10 +2706,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D69" s="5">
         <v>6.68</v>
@@ -2734,7 +2722,7 @@
         <v>7.0600000000000005</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2742,10 +2730,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D70" s="5">
         <v>6.56</v>
@@ -2758,7 +2746,7 @@
         <v>7.1999999999999993</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2766,10 +2754,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D71" s="5">
         <v>8.1199999999999992</v>
@@ -2782,7 +2770,7 @@
         <v>8.48</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2790,10 +2778,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D72" s="5">
         <v>6.64</v>
@@ -2806,7 +2794,7 @@
         <v>7.24</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2814,10 +2802,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D73" s="5">
         <v>6.76</v>
@@ -2830,7 +2818,7 @@
         <v>7.3</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2838,10 +2826,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D74" s="5">
         <v>6.48</v>
@@ -2854,7 +2842,7 @@
         <v>7.12</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2862,10 +2850,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D75" s="5">
         <v>7.56</v>
@@ -2878,7 +2866,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2886,10 +2874,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D76" s="5">
         <v>5.08</v>
@@ -2902,7 +2890,7 @@
         <v>6.46</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2910,10 +2898,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D77" s="5">
         <v>7.84</v>
@@ -2926,7 +2914,7 @@
         <v>8.34</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2934,10 +2922,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D78" s="5">
         <v>7.64</v>
@@ -2950,7 +2938,7 @@
         <v>8.32</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2958,10 +2946,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D79" s="5">
         <v>7.6</v>
@@ -2974,7 +2962,7 @@
         <v>8.02</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2982,10 +2970,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D80" s="5">
         <v>6.8</v>
@@ -2998,7 +2986,7 @@
         <v>7.4</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3006,10 +2994,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D81" s="5">
         <v>6.84</v>
@@ -3022,7 +3010,7 @@
         <v>7.42</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3030,10 +3018,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D82" s="5">
         <v>6.64</v>
@@ -3046,7 +3034,7 @@
         <v>7.1999999999999993</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3054,10 +3042,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D83" s="5">
         <v>7.36</v>
@@ -3070,7 +3058,7 @@
         <v>8.06</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3078,10 +3066,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D84" s="5">
         <v>6.96</v>
@@ -3094,7 +3082,7 @@
         <v>7.48</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3102,10 +3090,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D85" s="5">
         <v>7.84</v>
@@ -3118,7 +3106,7 @@
         <v>8.34</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3126,10 +3114,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D86" s="5">
         <v>6.88</v>
@@ -3142,7 +3130,7 @@
         <v>7.24</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3150,10 +3138,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D87" s="5">
         <v>2.4</v>
@@ -3166,7 +3154,7 @@
         <v>4.42</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3174,10 +3162,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D88" s="5">
         <v>7.32</v>
@@ -3190,7 +3178,7 @@
         <v>7.9</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3198,10 +3186,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D89" s="5">
         <v>7.68</v>
@@ -3214,7 +3202,7 @@
         <v>8.26</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3222,10 +3210,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D90" s="5">
         <v>8.36</v>
@@ -3238,7 +3226,7 @@
         <v>8.6</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3246,10 +3234,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D91" s="5">
         <v>7.36</v>
@@ -3262,7 +3250,7 @@
         <v>7.7799999999999994</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3270,10 +3258,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D92" s="5">
         <v>8.32</v>
@@ -3286,7 +3274,7 @@
         <v>8.66</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3294,10 +3282,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D93" s="5">
         <v>6.84</v>
@@ -3310,7 +3298,7 @@
         <v>7.42</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3318,10 +3306,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D94" s="5">
         <v>8.08</v>
@@ -3334,7 +3322,7 @@
         <v>8.4600000000000009</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3342,10 +3330,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D95" s="5">
         <v>7.88</v>
@@ -3358,7 +3346,7 @@
         <v>8.36</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3366,10 +3354,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D96" s="5">
         <v>8.1199999999999992</v>
@@ -3382,7 +3370,7 @@
         <v>8.48</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3390,10 +3378,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D97" s="5">
         <v>6.84</v>
@@ -3406,7 +3394,7 @@
         <v>7.42</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3414,10 +3402,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D98" s="5">
         <v>6.32</v>
@@ -3430,7 +3418,7 @@
         <v>6.8800000000000008</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3438,10 +3426,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D99" s="5">
         <v>6.76</v>
@@ -3454,7 +3442,7 @@
         <v>7.26</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3462,10 +3450,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D100" s="5">
         <v>6.76</v>
@@ -3478,7 +3466,7 @@
         <v>7.26</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3486,10 +3474,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D101" s="5">
         <v>5.16</v>
@@ -3502,50 +3490,31 @@
         <v>6.46</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F102" s="3">
-        <f>SUM(F2:F101)/100</f>
-        <v>7.7103000000000002</v>
-      </c>
+      <c r="F102" s="3"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B103" s="8" t="s">
-        <v>5</v>
-      </c>
+      <c r="B103" s="8"/>
       <c r="C103" s="8"/>
-      <c r="D103" s="4">
-        <v>7.7</v>
-      </c>
+      <c r="D103" s="4"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B104" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="B104" s="8"/>
       <c r="C104" s="8"/>
-      <c r="D104" s="4">
-        <v>100</v>
-      </c>
+      <c r="D104" s="4"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B105" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="B105" s="8"/>
       <c r="C105" s="8"/>
-      <c r="D105" s="4">
-        <v>100</v>
-      </c>
+      <c r="D105" s="4"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B106" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="B106" s="8"/>
       <c r="C106" s="8"/>
-      <c r="D106" s="4">
-        <v>7.7</v>
-      </c>
+      <c r="D106" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
